--- a/api_5/test_case/api_test.xlsx
+++ b/api_5/test_case/api_test.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8507" windowWidth="21000"/>
+    <workbookView activeTab="6" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9372" windowWidth="23040"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="login" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="recharge" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="invest" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="set" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="addloan" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="addloan" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="invest" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="set" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="getloanlist" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
   <si>
     <t>CaseId</t>
   </si>
@@ -114,7 +115,7 @@
     <t>手机号已经注册</t>
   </si>
   <si>
-    <t>{'mobilephone':'18307217255','pwd':'123456'}</t>
+    <t>{'mobilephone':'13899654120','pwd':'123456'}</t>
   </si>
   <si>
     <t>{'status':0,'code':'20110','data':None,'msg':'手机号码已被注册'}</t>
@@ -159,6 +160,9 @@
     <t>{'mobilephone':'18307218255','pwd':'123456'}</t>
   </si>
   <si>
+    <t>{'sql':'select Id from member where MobilePhone=#normal_user#'}</t>
+  </si>
+  <si>
     <t>{'status':1,'code':'10001','data': None,'msg':'登录成功'}</t>
   </si>
   <si>
@@ -177,10 +181,10 @@
     <t>{'sql':'select LeaveAmount from member where MobilePhone=#normal_user#'}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1955,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18399999999","leaveamount":"expect_amount","type":"1","regtime":"2019-04-20 20:35:37.0"},"msg":"充值成功"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":1955,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18399999999","leaveamount":"979500.00","type":"1","regtime":"2019-04-20 20:35:37.0"},"msg":"充值成功"}</t>
+    <t>{"status":1,"code":"10001","data":{"id":#id#,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18399999999","leaveamount":"expect_amount","type":"1","regtime":"2019-04-23 13:59:37.0"},"msg":"充值成功"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":1048,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18399999999","leaveamount":"999800.00","type":"1","regtime":"2019-04-23 13:59:37.0"},"msg":"充值成功"}</t>
   </si>
   <si>
     <t>不输入充值金额</t>
@@ -195,7 +199,43 @@
     <t>{"status":0,"code":"20115","data":null,"msg":"请输入金额"}</t>
   </si>
   <si>
-    <t>{'sql':'select Id from member where MobilePhone=#normal_user#'}</t>
+    <t>addloan</t>
+  </si>
+  <si>
+    <t>http://test.lemonban.com/futureloan/mvc/api/loan/add</t>
+  </si>
+  <si>
+    <t>加标</t>
+  </si>
+  <si>
+    <t>{'memberId':'#normal_memberid#','title':'收集果实','amount':100000,'loanRate':18.0,'loanTerm':3,'loanDateType':0,'repaymemtWay':5,'biddingDays':5}</t>
+  </si>
+  <si>
+    <t>{'sql':'select max(Id) from loan where MemberID=#normal_memberid#'}</t>
+  </si>
+  <si>
+    <t>{'status':1,'code':'10001','data': None,'msg':'加标成功'}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"加标成功"}</t>
+  </si>
+  <si>
+    <t>http://test.lemonban.com/futureloan/mvc/api/loan/audit</t>
+  </si>
+  <si>
+    <t>审核到4状态</t>
+  </si>
+  <si>
+    <t>{'id':'#loanid#','status':4}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":None,"msg":"更新状态成功：竞标开始，当前标为竞标中状态"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：竞标开始，当前标为竞标中状态"}</t>
+  </si>
+  <si>
+    <t>{'sql':'select Id from member where MobilePhone=#normal_user#','sql2':'select max(Id) from loan where MemberId=1048'}</t>
   </si>
   <si>
     <t>bidLoan</t>
@@ -207,7 +247,7 @@
     <t>正常投资</t>
   </si>
   <si>
-    <t>{'memberId':'#normal_memberid#','password':'#normal_pwd#','loanId':82,'amount':'100'}</t>
+    <t>{'memberId':'#normal_memberid#','password':'#normal_pwd#','loanId':#loan_id#,'amount':'100'}</t>
   </si>
   <si>
     <t>{'status':1,'code':'10001','data': None,'msg':'竞标成功'}</t>
@@ -219,7 +259,7 @@
     <t>不输入金额</t>
   </si>
   <si>
-    <t>{'memberId':'#normal_memberid#','password':'123456','loanId':82,'amount':''}</t>
+    <t>{'memberId':'#normal_memberid#','password':'123456','loanId':#loan_id#,'amount':''}</t>
   </si>
   <si>
     <t>{'status':0,'code':'11003','data': None,'msg':'参数错误:所有参数都不能为空'}</t>
@@ -231,40 +271,7 @@
     <t>tel</t>
   </si>
   <si>
-    <t>addloan</t>
-  </si>
-  <si>
-    <t>http://test.lemonban.com/futureloan/mvc/api/loan/add</t>
-  </si>
-  <si>
-    <t>加标</t>
-  </si>
-  <si>
-    <t>{'memberId':'#normal_memberid#','title':'收集果实','amount':100000,'loanRate':18.0,'loanTerm':3,'loanDateType':0,'repaymemtWay':5,'biddingDays':5}</t>
-  </si>
-  <si>
-    <t>{'sql':'select max(Id) from loan where MemberID=#normal_memberid#'}</t>
-  </si>
-  <si>
-    <t>{'status':1,'code':'10001','data': None,'msg':'加标成功'}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"加标成功"}</t>
-  </si>
-  <si>
-    <t>http://test.lemonban.com/futureloan/mvc/api/loan/audit</t>
-  </si>
-  <si>
-    <t>审核到4状态</t>
-  </si>
-  <si>
-    <t>{'id':'#loanid#','status':4}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":None,"msg":"更新状态成功：竞标开始，当前标为竞标中状态"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：竞标开始，当前标为竞标中状态"}</t>
+    <t>{'status':1,'code':'10001','data': None,'msg':'获取列表成功'}</t>
   </si>
 </sst>
 </file>
@@ -912,16 +919,16 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
@@ -1277,12 +1284,13 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0" outlineLevelRow="5"/>
   <cols>
-    <col customWidth="1" max="7" min="7" style="1" width="4.66666666666667"/>
+    <col customWidth="1" max="6" min="6" style="4" width="12.8888888888889"/>
+    <col customWidth="1" max="7" min="7" style="4" width="12.2222222222222"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1324,7 +1332,7 @@
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
@@ -1353,7 +1361,7 @@
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
@@ -1382,7 +1390,7 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
@@ -1411,7 +1419,7 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
@@ -1440,7 +1448,7 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
@@ -1477,7 +1485,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -1521,7 +1529,7 @@
       <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D2" t="s">
@@ -1530,7 +1538,7 @@
       <c r="E2" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>38</v>
       </c>
       <c r="H2" t="s">
@@ -1550,7 +1558,7 @@
       <c r="B3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D3" t="s">
@@ -1579,7 +1587,7 @@
       <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D4" t="s">
@@ -1602,7 +1610,7 @@
       <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D5" t="s">
@@ -1625,7 +1633,7 @@
       <c r="B6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D6" t="s">
@@ -1656,13 +1664,13 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0" outlineLevelRow="3"/>
   <cols>
-    <col customWidth="1" max="6" min="6" style="1" width="34.6666666666667"/>
-    <col customWidth="1" max="7" min="7" style="1" width="61.4444444444444"/>
+    <col customWidth="1" max="6" min="6" style="4" width="34.6666666666667"/>
+    <col customWidth="1" max="7" min="7" style="4" width="61.4444444444444"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1704,21 +1712,23 @@
       <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="3" t="n"/>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>46</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="I2" t="s">
         <v>40</v>
@@ -1731,29 +1741,29 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>47</v>
+      <c r="B3" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="3" t="s">
         <v>49</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J3" t="s">
         <v>17</v>
@@ -1763,27 +1773,27 @@
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>47</v>
+      <c r="B4" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="3" t="n"/>
-      <c r="H4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
@@ -1807,14 +1817,20 @@
   </sheetPr>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelCol="0" outlineLevelRow="3"/>
   <cols>
-    <col customWidth="1" max="6" min="6" style="1" width="21.3333333333333"/>
-    <col customWidth="1" max="7" min="7" style="1" width="79.4444444444444"/>
+    <col customWidth="1" max="3" min="3" style="4" width="26.8888888888889"/>
+    <col customWidth="1" max="4" min="4" style="4" width="21.7777777777778"/>
+    <col customWidth="1" max="5" min="5" style="4" width="19.4444444444444"/>
+    <col customWidth="1" max="6" min="6" style="4" width="49.4444444444444"/>
+    <col customWidth="1" max="7" min="7" style="4" width="18.5555555555556"/>
+    <col customWidth="1" max="8" min="8" style="4" width="16.5555555555556"/>
+    <col customWidth="1" max="9" min="9" style="4" width="14.1111111111111"/>
+    <col customWidth="1" max="10" min="10" style="4" width="11.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1856,25 +1872,25 @@
       <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J2" t="s">
@@ -1885,29 +1901,29 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>59</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>61</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I3" t="s">
+      <c r="H3" s="2" t="s">
         <v>64</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="J3" t="s">
         <v>17</v>
@@ -1917,27 +1933,180 @@
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>65</v>
+      <c r="C4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="4" t="n"/>
-      <c r="H4" s="3" t="s">
-        <v>67</v>
+      <c r="F4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/loan/add" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/loan/add" r:id="rId1"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/loan/audit" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/loan/audit" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelCol="0" outlineLevelRow="3"/>
+  <cols>
+    <col customWidth="1" max="3" min="3" style="4" width="65.8888888888889"/>
+    <col customWidth="1" max="6" min="6" style="4" width="21.3333333333333"/>
+    <col customWidth="1" max="7" min="7" style="4" width="79.4444444444444"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" t="s">
+        <v>81</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
@@ -1952,7 +2121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1961,20 +2130,20 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="1" width="12.8888888888889"/>
+    <col customWidth="1" max="2" min="2" style="4" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B1" t="n">
-        <v>13899654117</v>
+        <v>13899654125</v>
       </c>
     </row>
   </sheetData>
@@ -1982,25 +2151,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelCol="0" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelCol="0" outlineLevelRow="1"/>
   <cols>
-    <col customWidth="1" max="6" min="6" style="1" width="49.4444444444444"/>
-    <col customWidth="1" max="7" min="7" style="1" width="18.5555555555556"/>
-    <col customWidth="1" max="8" min="8" style="1" width="16.5555555555556"/>
-    <col customWidth="1" max="9" min="9" style="1" width="14.1111111111111"/>
-    <col customWidth="1" max="10" min="10" style="1" width="11.8888888888889"/>
+    <col customWidth="1" max="6" min="6" style="4" width="59.1111111111111"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2042,97 +2207,28 @@
       <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="F2" s="3" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" t="s">
         <v>40</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/loan/add" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/loan/add" r:id="rId1"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/loan/audit" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/loan/audit" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/api_5/test_case/api_test.xlsx
+++ b/api_5/test_case/api_test.xlsx
@@ -184,7 +184,7 @@
     <t>{"status":1,"code":"10001","data":{"id":#id#,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18399999999","leaveamount":"expect_amount","type":"1","regtime":"2019-04-23 13:59:37.0"},"msg":"充值成功"}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1048,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18399999999","leaveamount":"999800.00","type":"1","regtime":"2019-04-23 13:59:37.0"},"msg":"充值成功"}</t>
+    <t>{"status":1,"code":"10001","data":{"id":1048,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18399999999","leaveamount":"1199500.00","type":"1","regtime":"2019-04-23 13:59:37.0"},"msg":"充值成功"}</t>
   </si>
   <si>
     <t>不输入充值金额</t>
@@ -2143,7 +2143,7 @@
         <v>82</v>
       </c>
       <c r="B1" t="n">
-        <v>13899654125</v>
+        <v>13899654128</v>
       </c>
     </row>
   </sheetData>

--- a/api_5/test_case/api_test.xlsx
+++ b/api_5/test_case/api_test.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="6" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9372" windowWidth="23040"/>
+    <workbookView windowWidth="23040" windowHeight="9372" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="login" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="recharge" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="addloan" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="invest" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="set" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="getloanlist" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="register" sheetId="1" r:id="rId1"/>
+    <sheet name="login" sheetId="2" r:id="rId2"/>
+    <sheet name="recharge" sheetId="3" r:id="rId3"/>
+    <sheet name="addloan" sheetId="4" r:id="rId4"/>
+    <sheet name="invest" sheetId="5" r:id="rId5"/>
+    <sheet name="set" sheetId="6" r:id="rId6"/>
+    <sheet name="getloanlist" sheetId="7" r:id="rId7"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="84">
   <si>
     <t>CaseId</t>
   </si>
@@ -184,7 +184,7 @@
     <t>{"status":1,"code":"10001","data":{"id":#id#,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18399999999","leaveamount":"expect_amount","type":"1","regtime":"2019-04-23 13:59:37.0"},"msg":"充值成功"}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1048,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18399999999","leaveamount":"1199500.00","type":"1","regtime":"2019-04-23 13:59:37.0"},"msg":"充值成功"}</t>
+    <t>{"status":1,"code":"10001","data":{"id":1048,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18399999999","leaveamount":"2198500.00","type":"1","regtime":"2019-04-23 13:59:37.0"},"msg":"充值成功"}</t>
   </si>
   <si>
     <t>不输入充值金额</t>
@@ -279,174 +279,174 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="164"/>
-    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="165"/>
-    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
-    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF008080"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color rgb="FF008080"/>
-      <sz val="9"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -767,227 +767,232 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="24" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="16" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="15" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="15" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="7" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
-    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
-    <cellStyle builtinId="20" name="输入" xfId="3"/>
-    <cellStyle builtinId="4" name="货币" xfId="4"/>
-    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
-    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
-    <cellStyle builtinId="27" name="差" xfId="7"/>
-    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
-    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle builtinId="8" name="超链接" xfId="10"/>
-    <cellStyle builtinId="5" name="百分比" xfId="11"/>
-    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
-    <cellStyle builtinId="10" name="注释" xfId="13"/>
-    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
-    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
-    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
-    <cellStyle builtinId="15" name="标题" xfId="17"/>
-    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
-    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
-    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
-    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
-    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
-    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
-    <cellStyle builtinId="21" name="输出" xfId="24"/>
-    <cellStyle builtinId="22" name="计算" xfId="25"/>
-    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
-    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
-    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
-    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
-    <cellStyle builtinId="25" name="汇总" xfId="30"/>
-    <cellStyle builtinId="26" name="好" xfId="31"/>
-    <cellStyle builtinId="28" name="适中" xfId="32"/>
-    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
-    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
-    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
-    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
-    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
-    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
-    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
-    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1276,21 +1281,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
-    <col customWidth="1" max="6" min="6" style="4" width="12.8888888888889"/>
-    <col customWidth="1" max="7" min="7" style="4" width="12.2222222222222"/>
+    <col min="6" max="6" width="12.8888888888889" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.2222222222222" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1326,13 +1328,13 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" t="n">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
@@ -1355,13 +1357,13 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" t="n">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
@@ -1384,13 +1386,13 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" t="n">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
@@ -1413,13 +1415,13 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" t="n">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
@@ -1442,13 +1444,13 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" t="n">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
@@ -1471,24 +1473,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
@@ -1523,13 +1523,13 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" t="n">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D2" t="s">
@@ -1538,7 +1538,7 @@
       <c r="E2" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>38</v>
       </c>
       <c r="H2" t="s">
@@ -1552,13 +1552,13 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" t="n">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D3" t="s">
@@ -1580,14 +1580,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="n">
+    <row r="4" spans="1:8">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D4" t="s">
@@ -1603,14 +1603,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="n">
+    <row r="5" spans="1:8">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D5" t="s">
@@ -1626,14 +1626,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="n">
+    <row r="6" spans="1:8">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D6" t="s">
@@ -1650,27 +1650,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
-    <col customWidth="1" max="6" min="6" style="4" width="34.6666666666667"/>
-    <col customWidth="1" max="7" min="7" style="4" width="61.4444444444444"/>
+    <col min="6" max="6" width="34.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="61.4444444444444" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1706,28 +1704,28 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" t="n">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I2" t="s">
@@ -1738,25 +1736,25 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" t="n">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>52</v>
       </c>
       <c r="H3" t="s">
@@ -1770,26 +1768,26 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" t="n">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
         <v>57</v>
       </c>
       <c r="I4" t="s">
@@ -1801,36 +1799,34 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" r:id="rId1"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId1" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge"/>
+    <hyperlink ref="C4" r:id="rId1" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelCol="0" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
-    <col customWidth="1" max="3" min="3" style="4" width="26.8888888888889"/>
-    <col customWidth="1" max="4" min="4" style="4" width="21.7777777777778"/>
-    <col customWidth="1" max="5" min="5" style="4" width="19.4444444444444"/>
-    <col customWidth="1" max="6" min="6" style="4" width="49.4444444444444"/>
-    <col customWidth="1" max="7" min="7" style="4" width="18.5555555555556"/>
-    <col customWidth="1" max="8" min="8" style="4" width="16.5555555555556"/>
-    <col customWidth="1" max="9" min="9" style="4" width="14.1111111111111"/>
-    <col customWidth="1" max="10" min="10" style="4" width="11.8888888888889"/>
+    <col min="3" max="3" width="26.8888888888889" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7777777777778" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.4444444444444" style="1" customWidth="1"/>
+    <col min="6" max="6" width="49.4444444444444" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5555555555556" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5555555555556" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1111111111111" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.8888888888889" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1866,31 +1862,31 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" t="n">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>40</v>
       </c>
       <c r="J2" t="s">
@@ -1898,7 +1894,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" t="n">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1907,22 +1903,22 @@
       <c r="C3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>61</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>65</v>
       </c>
       <c r="J3" t="s">
@@ -1930,7 +1926,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" t="n">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1939,16 +1935,16 @@
       <c r="C4" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>67</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>69</v>
       </c>
       <c r="I4" t="s">
@@ -1960,30 +1956,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/loan/add" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/loan/add" r:id="rId1"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/loan/audit" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/loan/audit" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId1" display="http://test.lemonban.com/futureloan/mvc/api/loan/add" tooltip="http://test.lemonban.com/futureloan/mvc/api/loan/add"/>
+    <hyperlink ref="C4" r:id="rId2" display="http://test.lemonban.com/futureloan/mvc/api/loan/audit" tooltip="http://test.lemonban.com/futureloan/mvc/api/loan/audit"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelCol="0" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
-    <col customWidth="1" max="3" min="3" style="4" width="65.8888888888889"/>
-    <col customWidth="1" max="6" min="6" style="4" width="21.3333333333333"/>
-    <col customWidth="1" max="7" min="7" style="4" width="79.4444444444444"/>
+    <col min="3" max="3" width="65.8888888888889" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.3333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="79.4444444444444" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2019,28 +2013,28 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" t="n">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I2" t="s">
@@ -2051,28 +2045,28 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" t="n">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>74</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>76</v>
       </c>
       <c r="I3" t="s">
@@ -2083,26 +2077,26 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" t="n">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="3" t="n"/>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="3" t="s">
         <v>80</v>
       </c>
       <c r="I4" t="s">
@@ -2114,58 +2108,54 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId1"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId1" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan"/>
+    <hyperlink ref="C4" r:id="rId1" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="4" width="12.8888888888889"/>
+    <col min="2" max="2" width="12.8888888888889" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>82</v>
       </c>
-      <c r="B1" t="n">
-        <v>13899654128</v>
+      <c r="B1">
+        <v>18300000000</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelCol="0" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col customWidth="1" max="6" min="6" style="4" width="59.1111111111111"/>
+    <col min="6" max="6" width="59.1111111111111" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2201,24 +2191,24 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" t="n">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="2" t="n"/>
-      <c r="H2" s="2" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
         <v>83</v>
       </c>
       <c r="I2" t="s">
@@ -2229,6 +2219,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/api_5/test_case/api_test.xlsx
+++ b/api_5/test_case/api_test.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9372" activeTab="5"/>
+    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9372" windowWidth="23040"/>
   </bookViews>
   <sheets>
-    <sheet name="register" sheetId="1" r:id="rId1"/>
-    <sheet name="login" sheetId="2" r:id="rId2"/>
-    <sheet name="recharge" sheetId="3" r:id="rId3"/>
-    <sheet name="addloan" sheetId="4" r:id="rId4"/>
-    <sheet name="invest" sheetId="5" r:id="rId5"/>
-    <sheet name="set" sheetId="6" r:id="rId6"/>
-    <sheet name="getloanlist" sheetId="7" r:id="rId7"/>
+    <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="login" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="recharge" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="addloan" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="invest" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="set" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="getloanlist" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
   <si>
     <t>CaseId</t>
   </si>
@@ -184,7 +184,7 @@
     <t>{"status":1,"code":"10001","data":{"id":#id#,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18399999999","leaveamount":"expect_amount","type":"1","regtime":"2019-04-23 13:59:37.0"},"msg":"充值成功"}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1048,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18399999999","leaveamount":"2198500.00","type":"1","regtime":"2019-04-23 13:59:37.0"},"msg":"充值成功"}</t>
+    <t>{"status":1,"code":"10001","data":{"id":1048,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18399999999","leaveamount":"2598100.00","type":"1","regtime":"2019-04-23 13:59:37.0"},"msg":"充值成功"}</t>
   </si>
   <si>
     <t>不输入充值金额</t>
@@ -279,174 +279,174 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="164"/>
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="165"/>
+    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
+    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
   </numFmts>
   <fonts count="21">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF008080"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color rgb="FF008080"/>
+      <sz val="9"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -767,232 +767,227 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="24" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="16" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="15" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="15" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="7" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="33" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="27" name="差" xfId="7"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="8" name="超链接" xfId="10"/>
+    <cellStyle builtinId="5" name="百分比" xfId="11"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
+    <cellStyle builtinId="10" name="注释" xfId="13"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
+    <cellStyle builtinId="15" name="标题" xfId="17"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
+    <cellStyle builtinId="21" name="输出" xfId="24"/>
+    <cellStyle builtinId="22" name="计算" xfId="25"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
+    <cellStyle builtinId="25" name="汇总" xfId="30"/>
+    <cellStyle builtinId="26" name="好" xfId="31"/>
+    <cellStyle builtinId="28" name="适中" xfId="32"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1281,18 +1276,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0" outlineLevelRow="5"/>
   <cols>
-    <col min="6" max="6" width="12.8888888888889" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.2222222222222" style="1" customWidth="1"/>
+    <col customWidth="1" max="6" min="6" style="1" width="12.8888888888889"/>
+    <col customWidth="1" max="7" min="7" style="1" width="12.2222222222222"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1328,7 +1326,7 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1357,7 +1355,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1386,7 +1384,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1415,7 +1413,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -1444,7 +1442,7 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -1473,22 +1471,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
@@ -1523,7 +1523,7 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1552,7 +1552,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1580,8 +1580,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
+    <row r="4" spans="1:10">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1603,8 +1603,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
+    <row r="5" spans="1:10">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -1626,8 +1626,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
+    <row r="6" spans="1:10">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -1650,25 +1650,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0" outlineLevelRow="3"/>
   <cols>
-    <col min="6" max="6" width="34.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="61.4444444444444" style="1" customWidth="1"/>
+    <col customWidth="1" max="6" min="6" style="1" width="34.6666666666667"/>
+    <col customWidth="1" max="7" min="7" style="1" width="61.4444444444444"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1704,7 +1706,7 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1736,7 +1738,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1768,7 +1770,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1786,7 +1788,7 @@
       <c r="F4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3" t="n"/>
       <c r="H4" s="3" t="s">
         <v>57</v>
       </c>
@@ -1799,34 +1801,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge"/>
-    <hyperlink ref="C4" r:id="rId1" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" r:id="rId1"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelCol="0" outlineLevelRow="3"/>
   <cols>
-    <col min="3" max="3" width="26.8888888888889" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7777777777778" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.4444444444444" style="1" customWidth="1"/>
-    <col min="6" max="6" width="49.4444444444444" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5555555555556" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5555555555556" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1111111111111" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.8888888888889" style="1" customWidth="1"/>
+    <col customWidth="1" max="3" min="3" style="1" width="26.8888888888889"/>
+    <col customWidth="1" max="4" min="4" style="1" width="21.7777777777778"/>
+    <col customWidth="1" max="5" min="5" style="1" width="19.4444444444444"/>
+    <col customWidth="1" max="6" min="6" style="1" width="49.4444444444444"/>
+    <col customWidth="1" max="7" min="7" style="1" width="18.5555555555556"/>
+    <col customWidth="1" max="8" min="8" style="1" width="16.5555555555556"/>
+    <col customWidth="1" max="9" min="9" style="1" width="14.1111111111111"/>
+    <col customWidth="1" max="10" min="10" style="1" width="11.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1862,7 +1866,7 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1894,7 +1898,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1926,7 +1930,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1956,28 +1960,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="http://test.lemonban.com/futureloan/mvc/api/loan/add" tooltip="http://test.lemonban.com/futureloan/mvc/api/loan/add"/>
-    <hyperlink ref="C4" r:id="rId2" display="http://test.lemonban.com/futureloan/mvc/api/loan/audit" tooltip="http://test.lemonban.com/futureloan/mvc/api/loan/audit"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/loan/add" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/loan/add" r:id="rId1"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/loan/audit" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/loan/audit" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelCol="0" outlineLevelRow="3"/>
   <cols>
-    <col min="3" max="3" width="65.8888888888889" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="79.4444444444444" style="1" customWidth="1"/>
+    <col customWidth="1" max="3" min="3" style="1" width="65.8888888888889"/>
+    <col customWidth="1" max="6" min="6" style="1" width="21.3333333333333"/>
+    <col customWidth="1" max="7" min="7" style="1" width="79.4444444444444"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2013,7 +2019,7 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -2045,7 +2051,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2077,7 +2083,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2095,7 +2101,7 @@
       <c r="F4" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="n"/>
       <c r="H4" s="3" t="s">
         <v>80</v>
       </c>
@@ -2108,54 +2114,58 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan"/>
-    <hyperlink ref="C4" r:id="rId1" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId1"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="12.8888888888889" style="1" customWidth="1"/>
+    <col customWidth="1" max="2" min="2" style="1" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>82</v>
       </c>
-      <c r="B1">
-        <v>18300000000</v>
+      <c r="B1" t="n">
+        <v>18309900003</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelCol="0" outlineLevelRow="1"/>
   <cols>
-    <col min="6" max="6" width="59.1111111111111" style="1" customWidth="1"/>
+    <col customWidth="1" max="6" min="6" style="1" width="59.1111111111111"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2191,7 +2201,7 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -2206,8 +2216,8 @@
       <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="3"/>
+      <c r="F2" s="4" t="n"/>
+      <c r="G2" s="3" t="n"/>
       <c r="H2" s="3" t="s">
         <v>83</v>
       </c>
@@ -2219,7 +2229,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>